--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -543,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H2">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I2">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J2">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N2">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O2">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P2">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q2">
-        <v>0.0009355677209999998</v>
+        <v>0.008409651914666666</v>
       </c>
       <c r="R2">
-        <v>0.008420109488999999</v>
+        <v>0.07568686723199999</v>
       </c>
       <c r="S2">
-        <v>1.268638981333928E-08</v>
+        <v>3.764518891623718E-08</v>
       </c>
       <c r="T2">
-        <v>1.268638981333928E-08</v>
+        <v>3.764518891623717E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H3">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I3">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J3">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N3">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O3">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P3">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q3">
-        <v>0.1062986192546666</v>
+        <v>0.1463594631746667</v>
       </c>
       <c r="R3">
-        <v>0.9566875732919996</v>
+        <v>1.317235168572</v>
       </c>
       <c r="S3">
-        <v>1.441419675149773E-06</v>
+        <v>6.551673834775805E-07</v>
       </c>
       <c r="T3">
-        <v>1.441419675149773E-06</v>
+        <v>6.551673834775805E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H4">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I4">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J4">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N4">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O4">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P4">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q4">
-        <v>0.5352482112413333</v>
+        <v>1.465227425097667</v>
       </c>
       <c r="R4">
-        <v>4.817233901172</v>
+        <v>13.187046825879</v>
       </c>
       <c r="S4">
-        <v>7.258018102037664E-06</v>
+        <v>6.558982914245834E-06</v>
       </c>
       <c r="T4">
-        <v>7.258018102037664E-06</v>
+        <v>6.558982914245833E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H5">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I5">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J5">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N5">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O5">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P5">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q5">
-        <v>0.019216529266</v>
+        <v>0.00849235781</v>
       </c>
       <c r="R5">
-        <v>0.172948763394</v>
+        <v>0.07643122029</v>
       </c>
       <c r="S5">
-        <v>2.605780165943952E-07</v>
+        <v>3.801541578007204E-08</v>
       </c>
       <c r="T5">
-        <v>2.605780165943952E-07</v>
+        <v>3.801541578007204E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H6">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I6">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J6">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N6">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O6">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P6">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q6">
-        <v>26.40404711670367</v>
+        <v>50.93947203232366</v>
       </c>
       <c r="R6">
-        <v>237.636424050333</v>
+        <v>458.455248290913</v>
       </c>
       <c r="S6">
-        <v>0.0003580414617278996</v>
+        <v>0.0002280268038925382</v>
       </c>
       <c r="T6">
-        <v>0.0003580414617278996</v>
+        <v>0.0002280268038925382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H7">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I7">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J7">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N7">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O7">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P7">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q7">
-        <v>0.404398422021</v>
+        <v>0.3935628211196667</v>
       </c>
       <c r="R7">
-        <v>3.639585798189</v>
+        <v>3.542065390077</v>
       </c>
       <c r="S7">
-        <v>5.483682160575197E-06</v>
+        <v>1.761755052622099E-06</v>
       </c>
       <c r="T7">
-        <v>5.483682160575197E-06</v>
+        <v>1.761755052622099E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H8">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I8">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J8">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N8">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O8">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P8">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q8">
-        <v>0.165347336793</v>
+        <v>1.458205097781333</v>
       </c>
       <c r="R8">
-        <v>1.488126031137</v>
+        <v>13.123845880032</v>
       </c>
       <c r="S8">
-        <v>2.24212606107377E-06</v>
+        <v>6.52754798196356E-06</v>
       </c>
       <c r="T8">
-        <v>2.24212606107377E-06</v>
+        <v>6.52754798196356E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H9">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I9">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J9">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N9">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O9">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P9">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q9">
-        <v>18.78666098029288</v>
+        <v>25.37823413804133</v>
       </c>
       <c r="R9">
-        <v>169.079948822636</v>
+        <v>228.404107242372</v>
       </c>
       <c r="S9">
-        <v>0.0002547489605907921</v>
+        <v>0.000113603800511752</v>
       </c>
       <c r="T9">
-        <v>0.0002547489605907921</v>
+        <v>0.000113603800511752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H10">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I10">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J10">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N10">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O10">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P10">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q10">
-        <v>94.59696424474178</v>
+        <v>254.0654622054143</v>
       </c>
       <c r="R10">
-        <v>851.3726782026761</v>
+        <v>2286.589159848729</v>
       </c>
       <c r="S10">
-        <v>0.001282744088567494</v>
+        <v>0.001137305374688988</v>
       </c>
       <c r="T10">
-        <v>0.001282744088567494</v>
+        <v>0.001137305374688988</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H11">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I11">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J11">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N11">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O11">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P11">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q11">
-        <v>3.396228691111333</v>
+        <v>1.47254601931</v>
       </c>
       <c r="R11">
-        <v>30.566058220002</v>
+        <v>13.25291417379</v>
       </c>
       <c r="S11">
-        <v>4.605319326818183E-05</v>
+        <v>6.591744063520521E-06</v>
       </c>
       <c r="T11">
-        <v>4.605319326818183E-05</v>
+        <v>6.591744063520521E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H12">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I12">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J12">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N12">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O12">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P12">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q12">
-        <v>4666.512934667444</v>
+        <v>8832.731550550539</v>
       </c>
       <c r="R12">
-        <v>41998.61641200699</v>
+        <v>79494.58395495485</v>
       </c>
       <c r="S12">
-        <v>0.06327837186911779</v>
+        <v>0.0395390738214714</v>
       </c>
       <c r="T12">
-        <v>0.06327837186911779</v>
+        <v>0.03953907382147139</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H13">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I13">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J13">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N13">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O13">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P13">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q13">
-        <v>71.47125812869301</v>
+        <v>68.24245734273633</v>
       </c>
       <c r="R13">
-        <v>643.241323158237</v>
+        <v>614.182116084627</v>
       </c>
       <c r="S13">
-        <v>0.0009691572514934952</v>
+        <v>0.0003054823463376835</v>
       </c>
       <c r="T13">
-        <v>0.0009691572514934952</v>
+        <v>0.0003054823463376835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H14">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I14">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J14">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N14">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O14">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P14">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q14">
-        <v>2.205029042826</v>
+        <v>33.57450583015466</v>
       </c>
       <c r="R14">
-        <v>19.845261385434</v>
+        <v>302.170552471392</v>
       </c>
       <c r="S14">
-        <v>2.990040951511732E-05</v>
+        <v>0.0001502938085393487</v>
       </c>
       <c r="T14">
-        <v>2.990040951511733E-05</v>
+        <v>0.0001502938085393487</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H15">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I15">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J15">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N15">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O15">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P15">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q15">
-        <v>250.5340205819724</v>
+        <v>584.3222406252147</v>
       </c>
       <c r="R15">
-        <v>2254.806185237751</v>
+        <v>5258.900165626932</v>
       </c>
       <c r="S15">
-        <v>0.003397265826153987</v>
+        <v>0.002615675578430537</v>
       </c>
       <c r="T15">
-        <v>0.003397265826153988</v>
+        <v>0.002615675578430537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H16">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I16">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J16">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N16">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O16">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P16">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q16">
-        <v>1261.520491158337</v>
+        <v>5849.741133833129</v>
       </c>
       <c r="R16">
-        <v>11353.68442042503</v>
+        <v>52647.67020449816</v>
       </c>
       <c r="S16">
-        <v>0.01710634126115804</v>
+        <v>0.02618593638937317</v>
       </c>
       <c r="T16">
-        <v>0.01710634126115804</v>
+        <v>0.02618593638937317</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H17">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I17">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J17">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N17">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O17">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P17">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q17">
-        <v>45.29122177126266</v>
+        <v>33.90469899311</v>
       </c>
       <c r="R17">
-        <v>407.620995941364</v>
+        <v>305.14229093799</v>
       </c>
       <c r="S17">
-        <v>0.0006141533975739175</v>
+        <v>0.0001517718939731375</v>
       </c>
       <c r="T17">
-        <v>0.0006141533975739176</v>
+        <v>0.0001517718939731375</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H18">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I18">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J18">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N18">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O18">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P18">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q18">
-        <v>62231.40178270184</v>
+        <v>203369.6065055317</v>
       </c>
       <c r="R18">
-        <v>560082.6160443166</v>
+        <v>1830326.458549786</v>
       </c>
       <c r="S18">
-        <v>0.843863895605578</v>
+        <v>0.9103691014094745</v>
       </c>
       <c r="T18">
-        <v>0.8438638956055781</v>
+        <v>0.9103691014094744</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H19">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I19">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J19">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N19">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O19">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P19">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q19">
-        <v>953.122094118626</v>
+        <v>1571.25138665601</v>
       </c>
       <c r="R19">
-        <v>8578.098847067635</v>
+        <v>14141.26247990409</v>
       </c>
       <c r="S19">
-        <v>0.01292442882998433</v>
+        <v>0.007033591388295842</v>
       </c>
       <c r="T19">
-        <v>0.01292442882998434</v>
+        <v>0.007033591388295842</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H20">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I20">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J20">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.024183</v>
+        <v>0.1578773333333333</v>
       </c>
       <c r="N20">
-        <v>0.072549</v>
+        <v>0.4736319999999999</v>
       </c>
       <c r="O20">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="P20">
-        <v>3.405761925099762E-05</v>
+        <v>0.0001587879524413789</v>
       </c>
       <c r="Q20">
-        <v>0.140293772976</v>
+        <v>0.4309130775146666</v>
       </c>
       <c r="R20">
-        <v>1.262643956784</v>
+        <v>3.878217697631999</v>
       </c>
       <c r="S20">
-        <v>1.902397284993183E-06</v>
+        <v>1.928950731150418E-06</v>
       </c>
       <c r="T20">
-        <v>1.902397284993183E-06</v>
+        <v>1.928950731150418E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H21">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I21">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J21">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.747657333333333</v>
       </c>
       <c r="N21">
-        <v>8.242971999999998</v>
+        <v>8.242972</v>
       </c>
       <c r="O21">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="P21">
-        <v>0.003869605395975606</v>
+        <v>0.002763505518866162</v>
       </c>
       <c r="Q21">
-        <v>15.94009073061688</v>
+        <v>7.499502635774665</v>
       </c>
       <c r="R21">
-        <v>143.4608165755519</v>
+        <v>67.49552372197199</v>
       </c>
       <c r="S21">
-        <v>0.0002161491895556772</v>
+        <v>3.357097254039513E-05</v>
       </c>
       <c r="T21">
-        <v>0.0002161491895556772</v>
+        <v>3.357097254039513E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H22">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I22">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J22">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.83535066666667</v>
+        <v>27.50722633333334</v>
       </c>
       <c r="N22">
-        <v>41.506052</v>
+        <v>82.52167900000001</v>
       </c>
       <c r="O22">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179688</v>
       </c>
       <c r="P22">
-        <v>0.01948472502209691</v>
+        <v>0.02766588499179687</v>
       </c>
       <c r="Q22">
-        <v>80.26355478942578</v>
+        <v>75.07869117704766</v>
       </c>
       <c r="R22">
-        <v>722.371993104832</v>
+        <v>675.708220593429</v>
       </c>
       <c r="S22">
-        <v>0.001088381654269334</v>
+        <v>0.0003360842448204727</v>
       </c>
       <c r="T22">
-        <v>0.001088381654269334</v>
+        <v>0.0003360842448204727</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H23">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I23">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J23">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.496718</v>
+        <v>0.15943</v>
       </c>
       <c r="N23">
-        <v>1.490154</v>
+        <v>0.47829</v>
       </c>
       <c r="O23">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="P23">
-        <v>0.0006995423445857434</v>
+        <v>0.0001603495747187418</v>
       </c>
       <c r="Q23">
-        <v>2.881629339829333</v>
+        <v>0.4351509523099999</v>
       </c>
       <c r="R23">
-        <v>25.934664058464</v>
+        <v>3.916358570789999</v>
       </c>
       <c r="S23">
-        <v>3.907517572704974E-05</v>
+        <v>1.947921266303657E-06</v>
       </c>
       <c r="T23">
-        <v>3.907517572704974E-05</v>
+        <v>1.947921266303657E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H24">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I24">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J24">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>682.5043843333334</v>
+        <v>956.3045043333333</v>
       </c>
       <c r="N24">
-        <v>2047.513153</v>
+        <v>2868.913513</v>
       </c>
       <c r="O24">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170556</v>
       </c>
       <c r="P24">
-        <v>0.9611906901030149</v>
+        <v>0.9618203636170555</v>
       </c>
       <c r="Q24">
-        <v>3959.439075002495</v>
+        <v>2610.153771303973</v>
       </c>
       <c r="R24">
-        <v>35634.95167502245</v>
+        <v>23491.38394173576</v>
       </c>
       <c r="S24">
-        <v>0.0536903811665913</v>
+        <v>0.01168416158221713</v>
       </c>
       <c r="T24">
-        <v>0.0536903811665913</v>
+        <v>0.01168416158221713</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H25">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I25">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J25">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.453083</v>
+        <v>7.388492333333333</v>
       </c>
       <c r="N25">
-        <v>31.359249</v>
+        <v>22.165477</v>
       </c>
       <c r="O25">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="P25">
-        <v>0.01472137951507571</v>
+        <v>0.007431108345121271</v>
       </c>
       <c r="Q25">
-        <v>60.641874593776</v>
+        <v>20.16627657896966</v>
       </c>
       <c r="R25">
-        <v>545.776871343984</v>
+        <v>181.496489210727</v>
       </c>
       <c r="S25">
-        <v>0.0008223097514373073</v>
+        <v>9.027285543512214E-05</v>
       </c>
       <c r="T25">
-        <v>0.0008223097514373073</v>
+        <v>9.027285543512214E-05</v>
       </c>
     </row>
   </sheetData>
